--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5522388059701493</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5505952380952381</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7101727447216891</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4970238095238095</v>
+        <v>0.4851190476190476</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1394819589723696</v>
+        <v>0.131670513121133</v>
       </c>
       <c r="J2" t="n">
-        <v>1860.011329363207</v>
+        <v>1715.185217373467</v>
       </c>
       <c r="K2" t="n">
-        <v>4974062.495090046</v>
+        <v>3802165.946470856</v>
       </c>
       <c r="L2" t="n">
-        <v>2230.260633892381</v>
+        <v>1949.91434336764</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08333944688783301</v>
+        <v>0.2993060414989566</v>
       </c>
     </row>
   </sheetData>
